--- a/BackTest/2020-01-16 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-16 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1000456.013936331</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>999169.7907363309</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1031921.430636331</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>542039.806036331</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>546720.808436331</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>525866.709836331</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>526477.702836331</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>411185.312736331</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>457784.9396363309</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>110990.0063363309</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>108241.2680363309</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>108258.2680363309</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>82815.4345363309</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>85421.4345363309</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>85438.4345363309</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>84652.4714363309</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>107370.0767363309</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>107370.0767363309</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>105230.0767363309</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>103837.5934363309</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>108731.0315363309</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>108842.0315363309</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>108874.0315363309</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>104974.4709363309</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>111216.0204363309</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>145107.8524363309</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>104257.4672363309</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>105761.4472363309</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>138417.2386363309</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>136268.8203363309</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>120860.5683363309</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>101481.7868363309</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2926,14 +2926,10 @@
         <v>-245816.7743947645</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="J77" t="n">
-        <v>30.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2963,19 +2959,11 @@
         <v>-244366.3231947645</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>30.78</v>
-      </c>
-      <c r="J78" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3004,19 +2992,11 @@
         <v>-244366.3231947645</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="J79" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,14 +3025,10 @@
         <v>-244366.3231947645</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="J80" t="n">
-        <v>30.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3082,19 +3058,11 @@
         <v>-133900.1516947645</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3123,19 +3091,11 @@
         <v>-133899.7498947645</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>31.07</v>
-      </c>
-      <c r="J82" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3164,14 +3124,10 @@
         <v>-131807.3204947645</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>31.08</v>
-      </c>
-      <c r="J83" t="n">
-        <v>31.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3201,19 +3157,11 @@
         <v>-130807.3204947645</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>31.08</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3242,19 +3190,11 @@
         <v>-122853.4311947645</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>31.24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>31.08</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -4240,11 +4180,17 @@
         <v>-90286.88709476449</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>31.21</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4273,11 +4219,17 @@
         <v>-88554.77239476448</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>31.27</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4306,11 +4258,17 @@
         <v>-87920.80959476449</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>31.28</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4339,11 +4297,17 @@
         <v>-84556.55189476449</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4372,15 +4336,17 @@
         <v>-84556.55189476449</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>31.32</v>
       </c>
-      <c r="J119" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4409,17 +4375,15 @@
         <v>-84540.59269476449</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>31.32</v>
       </c>
-      <c r="J120" t="n">
-        <v>31.32</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4450,15 +4414,15 @@
         <v>-84540.59269476449</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>31.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4489,11 +4453,17 @@
         <v>-84540.59269476449</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>31.33</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4526,7 +4496,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4559,7 +4533,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4592,7 +4570,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4625,7 +4607,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4640,17 @@
         <v>-83821.08586446728</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +4679,17 @@
         <v>-85476.18676446729</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>31.29</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +4718,17 @@
         <v>-86180.37116446729</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>31.13</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>-120001.6292644673</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>31.12</v>
@@ -4761,7 +4765,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4792,7 +4796,7 @@
         <v>-263051.7303644673</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>31</v>
@@ -4831,7 +4835,7 @@
         <v>-180227.7303644673</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>30.68</v>
@@ -4870,7 +4874,7 @@
         <v>-235359.9461644673</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>31</v>
@@ -4909,9 +4913,11 @@
         <v>-274401.4231644673</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -4946,7 +4952,7 @@
         <v>-303210.1657644673</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>30.68</v>
@@ -4985,9 +4991,11 @@
         <v>-296406.7341644673</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>30.45</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5022,9 +5030,11 @@
         <v>-296406.7341644673</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>30.71</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5059,9 +5069,11 @@
         <v>-294981.1809644672</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>30.71</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5096,7 +5108,7 @@
         <v>-294948.1932781419</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>30.84</v>
@@ -5135,9 +5147,11 @@
         <v>-296563.8810781419</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>30.86</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5172,9 +5186,11 @@
         <v>-296563.8810781419</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>30.68</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5209,9 +5225,11 @@
         <v>-296563.8810781419</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>30.68</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5246,9 +5264,11 @@
         <v>-294966.8810781419</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>30.68</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5283,9 +5303,11 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>30.74</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5320,7 +5342,7 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>30.67</v>
@@ -5359,9 +5381,11 @@
         <v>-311062.6797781419</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>30.67</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5396,9 +5420,11 @@
         <v>-321016.4243781419</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>30.63</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5433,9 +5459,11 @@
         <v>-431482.5958781419</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>30.58</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5470,9 +5498,11 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>30.41</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5507,9 +5537,11 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>30.46</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5544,9 +5576,11 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>30.46</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5581,9 +5615,11 @@
         <v>-201101.2673781419</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>30.46</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5766,9 +5802,11 @@
         <v>-239651.8319781419</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>30.42</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5840,11 +5878,9 @@
         <v>-245289.1039746812</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>30.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5879,11 +5915,9 @@
         <v>-255812.8136746812</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>30.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -5918,11 +5952,9 @@
         <v>-258385.6032746812</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>30.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -5957,11 +5989,9 @@
         <v>-255821.8809746812</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>30.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -5996,11 +6026,9 @@
         <v>-253395.0564746812</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>30.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6035,11 +6063,9 @@
         <v>-191129.4140746812</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>30.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6074,11 +6100,9 @@
         <v>-191129.4140746812</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>30.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6113,11 +6137,9 @@
         <v>-136343.0772746812</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>30.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6152,11 +6174,9 @@
         <v>-139480.1428746812</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>31.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6191,11 +6211,9 @@
         <v>-143878.5446746812</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>31.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6230,11 +6248,9 @@
         <v>-143439.2691746812</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>30.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6269,11 +6285,9 @@
         <v>-169331.2449746812</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>30.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6308,11 +6322,9 @@
         <v>-169331.2449746812</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>30.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6347,11 +6359,9 @@
         <v>-160871.0845746812</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>30.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6534,11 +6544,9 @@
         <v>-470487.4832746813</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>30.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6573,11 +6581,9 @@
         <v>-471782.7112746813</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>30.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6612,11 +6618,9 @@
         <v>-471351.7112746813</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>30.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6651,11 +6655,9 @@
         <v>-472028.0962746813</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>30.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6690,11 +6692,9 @@
         <v>-474502.1288746812</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>30.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6729,11 +6729,9 @@
         <v>-474485.1288746812</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>30.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6768,11 +6766,9 @@
         <v>-476915.0809746812</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>30.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6807,7 +6803,7 @@
         <v>-476815.0809746812</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>30.41</v>
@@ -6846,7 +6842,7 @@
         <v>-476715.0809746812</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>30.46</v>
@@ -6885,7 +6881,7 @@
         <v>-470014.5234746812</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>30.47</v>
@@ -6924,7 +6920,7 @@
         <v>-414437.8174746812</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>30.58</v>
@@ -6963,7 +6959,7 @@
         <v>-410851.8200754615</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>30.66</v>
@@ -7002,7 +6998,7 @@
         <v>-410351.8200754615</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>30.78</v>
@@ -7041,11 +7037,9 @@
         <v>-322144.2044754614</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>30.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7080,11 +7074,9 @@
         <v>-315150.6239754615</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>31.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7119,11 +7111,9 @@
         <v>-322719.5910754615</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>31.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7158,11 +7148,9 @@
         <v>-321529.1876754615</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>30.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7197,11 +7185,9 @@
         <v>-321529.1876754615</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7236,11 +7222,9 @@
         <v>-315751.3306754614</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7275,11 +7259,9 @@
         <v>-309483.3306754614</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>31.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7314,11 +7296,9 @@
         <v>-310057.8398754614</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>31.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7353,11 +7333,9 @@
         <v>-310057.8398754614</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>31.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7392,11 +7370,9 @@
         <v>-310205.3058754614</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>31.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7431,11 +7407,9 @@
         <v>-339984.8658754614</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>31.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7470,11 +7444,9 @@
         <v>-351997.8528754615</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>31.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7509,11 +7481,9 @@
         <v>-328671.7343754615</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>30.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7548,11 +7518,9 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>30.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7587,7 +7555,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>30.33</v>
@@ -7626,7 +7594,7 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>30.33</v>
@@ -7665,7 +7633,7 @@
         <v>-339545.3758754615</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>30.33</v>
@@ -7704,7 +7672,7 @@
         <v>-338545.3758754615</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>30.4</v>
@@ -7743,7 +7711,7 @@
         <v>-348228.3758754615</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>30.7</v>
@@ -7782,7 +7750,7 @@
         <v>-345728.3758754615</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>30.63</v>
@@ -7821,7 +7789,7 @@
         <v>-340104.7195754615</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>30.77</v>
@@ -7860,7 +7828,7 @@
         <v>-339156.9585754615</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>30.87</v>
@@ -7899,7 +7867,7 @@
         <v>-339173.0616754615</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>31.07</v>
@@ -7938,7 +7906,7 @@
         <v>-324896.3399754615</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>31.05</v>
@@ -7977,11 +7945,9 @@
         <v>-340329.0633754616</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>31.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8016,7 +7982,7 @@
         <v>-316349.2982754615</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>30.74</v>
@@ -8055,11 +8021,9 @@
         <v>-316349.2982754615</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>31.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8094,11 +8058,9 @@
         <v>-316349.2982754615</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>31.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8133,11 +8095,9 @@
         <v>-230996.2425754615</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>31.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8172,11 +8132,9 @@
         <v>-308351.2311754616</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>31.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8470,11 +8428,9 @@
         <v>-251656.0444754616</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>31.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8509,11 +8465,9 @@
         <v>-251191.3872754616</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>31.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8548,11 +8502,9 @@
         <v>-251191.3872754616</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>31.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8587,11 +8539,9 @@
         <v>-251191.3872754616</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>31.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8626,11 +8576,9 @@
         <v>-252224.6652754616</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>31.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8665,11 +8613,9 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>31.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8704,11 +8650,9 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>31.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8743,11 +8687,9 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>31.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8782,11 +8724,9 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>31.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9524,16 +9464,18 @@
         <v>60628.78812976208</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L255" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
       <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
@@ -9559,11 +9501,15 @@
         <v>159484.8970297621</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9538,15 @@
         <v>194031.1172297621</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9575,15 @@
         <v>190096.1750297621</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9612,15 @@
         <v>186755.1750297621</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9649,15 @@
         <v>184755.1750297621</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9724,14 +9686,16 @@
         <v>157111.9608297621</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -10087,7 +10051,7 @@
         <v>71564.39122976213</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10120,7 +10084,7 @@
         <v>58424.39132976213</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10153,7 +10117,7 @@
         <v>56424.39132976213</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10186,7 +10150,7 @@
         <v>29273.68762976213</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10219,7 +10183,7 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10252,7 +10216,7 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10285,7 +10249,7 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10318,7 +10282,7 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10384,7 +10348,7 @@
         <v>17544.15462976213</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10516,7 +10480,7 @@
         <v>-21025.15767023787</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10747,7 +10711,7 @@
         <v>-151298.0879702379</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10780,7 +10744,7 @@
         <v>-416350.6743702379</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10813,7 +10777,7 @@
         <v>-416317.670859226</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11704,10 +11668,14 @@
         <v>-588666.3263592261</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="J321" t="n">
+        <v>30.96</v>
+      </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
@@ -11740,8 +11708,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +11747,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12298,10 +12278,14 @@
         <v>-563521.369859226</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="J339" t="n">
+        <v>31.33</v>
+      </c>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
@@ -12334,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12496,10 +12492,14 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J345" t="n">
+        <v>31.61</v>
+      </c>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
@@ -12529,11 +12529,19 @@
         <v>-624801.4482592259</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J346" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12562,15 +12570,19 @@
         <v>-626012.7618592259</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>31.98</v>
       </c>
       <c r="J347" t="n">
-        <v>31.98</v>
-      </c>
-      <c r="K347" t="inlineStr"/>
+        <v>31.61</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12599,15 +12611,17 @@
         <v>-626047.7618592259</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>31.89</v>
+      </c>
       <c r="J348" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -12638,15 +12652,17 @@
         <v>-658797.9502592259</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>31.86</v>
+      </c>
       <c r="J349" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
@@ -12677,11 +12693,13 @@
         <v>-658697.9502592259</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>31.51</v>
+      </c>
       <c r="J350" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12716,11 +12734,13 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>31.62</v>
+      </c>
       <c r="J351" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12755,13 +12775,13 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>31.25</v>
       </c>
       <c r="J352" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12796,13 +12816,13 @@
         <v>-717064.4483592259</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>31.25</v>
       </c>
       <c r="J353" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12837,11 +12857,13 @@
         <v>-716745.3673126401</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>31.17</v>
+      </c>
       <c r="J354" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12876,11 +12898,13 @@
         <v>-716645.3673126401</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>31.34</v>
+      </c>
       <c r="J355" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12915,11 +12939,13 @@
         <v>-716545.3673126401</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J356" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12954,11 +12980,13 @@
         <v>-713388.8016560744</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>31.54</v>
+      </c>
       <c r="J357" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12993,11 +13021,13 @@
         <v>-718284.0707560744</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>31.68</v>
+      </c>
       <c r="J358" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13032,11 +13062,13 @@
         <v>-719487.8238560744</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>31.38</v>
+      </c>
       <c r="J359" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13071,11 +13103,13 @@
         <v>-719387.8238560744</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J360" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13110,11 +13144,13 @@
         <v>-681587.8238560744</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>31.55</v>
+      </c>
       <c r="J361" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13149,11 +13185,13 @@
         <v>-682398.1987560744</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>31.67</v>
+      </c>
       <c r="J362" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13188,13 +13226,13 @@
         <v>-682298.1987560744</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>31.44</v>
       </c>
       <c r="J363" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13229,11 +13267,13 @@
         <v>-729377.3336560744</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>31.73</v>
+      </c>
       <c r="J364" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13268,11 +13308,13 @@
         <v>-729343.3424280041</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>31.45</v>
+      </c>
       <c r="J365" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13307,11 +13349,13 @@
         <v>-790092.1174493878</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>31.92</v>
+      </c>
       <c r="J366" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13346,11 +13390,13 @@
         <v>-790531.2632493878</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>31.8</v>
+      </c>
       <c r="J367" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13385,11 +13431,13 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>31.71</v>
+      </c>
       <c r="J368" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13424,11 +13472,13 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>31.65</v>
+      </c>
       <c r="J369" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13463,13 +13513,13 @@
         <v>-791631.2632493878</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>31.65</v>
       </c>
       <c r="J370" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13504,11 +13554,13 @@
         <v>-791531.2632493878</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>31.81</v>
+      </c>
       <c r="J371" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13543,11 +13595,13 @@
         <v>-800031.2632493878</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J372" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13582,11 +13636,13 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>31.65</v>
+      </c>
       <c r="J373" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13621,11 +13677,13 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J374" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13660,11 +13718,13 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J375" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13699,11 +13759,13 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>31.75</v>
+      </c>
       <c r="J376" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13738,11 +13800,13 @@
         <v>-773404.3996493878</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>31.75</v>
+      </c>
       <c r="J377" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13777,11 +13841,13 @@
         <v>-778519.8958493879</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>32.14</v>
+      </c>
       <c r="J378" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13816,11 +13882,13 @@
         <v>-781707.4395493879</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J379" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13855,11 +13923,13 @@
         <v>-786919.7929493879</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>31.71</v>
+      </c>
       <c r="J380" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13894,11 +13964,13 @@
         <v>-809660.8433493879</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J381" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13933,11 +14005,13 @@
         <v>-809627.8471420554</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J382" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13972,11 +14046,13 @@
         <v>-753680.8471420554</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>31.64</v>
+      </c>
       <c r="J383" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14011,11 +14087,13 @@
         <v>-770226.7299420554</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>31.74</v>
+      </c>
       <c r="J384" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14050,11 +14128,13 @@
         <v>-767726.7299420554</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>31.64</v>
+      </c>
       <c r="J385" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14089,11 +14169,13 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J386" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14128,11 +14210,13 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J387" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14167,11 +14251,13 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J388" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14206,11 +14292,13 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J389" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14245,11 +14333,13 @@
         <v>-783223.3566420554</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J390" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14284,11 +14374,13 @@
         <v>-784223.3566420554</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>31.59</v>
+      </c>
       <c r="J391" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14323,11 +14415,13 @@
         <v>-778818.8582420554</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>31.24</v>
+      </c>
       <c r="J392" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14362,11 +14456,13 @@
         <v>-762605.3630420554</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J393" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14401,11 +14497,13 @@
         <v>-757275.6057420553</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>31.31</v>
+      </c>
       <c r="J394" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14440,11 +14538,13 @@
         <v>-757231.3922420554</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J395" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14479,11 +14579,13 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J396" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14518,11 +14620,13 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J397" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14557,11 +14661,13 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J398" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14596,11 +14702,13 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J399" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14635,11 +14743,13 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J400" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14674,11 +14784,13 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J401" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14713,11 +14825,13 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J402" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14752,13 +14866,13 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>31.5</v>
       </c>
       <c r="J403" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14793,13 +14907,13 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>31.5</v>
       </c>
       <c r="J404" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14834,11 +14948,13 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J405" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14873,11 +14989,13 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J406" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14912,11 +15030,13 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J407" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14951,11 +15071,13 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J408" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14990,11 +15112,13 @@
         <v>-737112.814267958</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J409" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15029,11 +15153,13 @@
         <v>-700031.834020482</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>32.27</v>
+      </c>
       <c r="J410" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15068,11 +15194,13 @@
         <v>-699932.8244291845</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J411" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15107,11 +15235,13 @@
         <v>-693130.8152719227</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J412" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15146,11 +15276,13 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>32.43</v>
+      </c>
       <c r="J413" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15185,11 +15317,13 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>32.34</v>
+      </c>
       <c r="J414" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15224,11 +15358,13 @@
         <v>-695660.0452719227</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>32.34</v>
+      </c>
       <c r="J415" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15263,11 +15399,13 @@
         <v>-693926.1519069272</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>31.82</v>
+      </c>
       <c r="J416" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15302,11 +15440,13 @@
         <v>-705874.3414752824</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>32.09</v>
+      </c>
       <c r="J417" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15341,11 +15481,13 @@
         <v>-704054.3619849158</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>31.98</v>
+      </c>
       <c r="J418" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15380,11 +15522,13 @@
         <v>-704345.1462849159</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>32.18</v>
+      </c>
       <c r="J419" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15419,11 +15563,13 @@
         <v>-689162.1319849158</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>31.88</v>
+      </c>
       <c r="J420" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15458,11 +15604,13 @@
         <v>-687005.128815709</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>32.05</v>
+      </c>
       <c r="J421" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15497,11 +15645,13 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>32.15</v>
+      </c>
       <c r="J422" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15536,11 +15686,13 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>32</v>
+      </c>
       <c r="J423" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15575,11 +15727,13 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>32</v>
+      </c>
       <c r="J424" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15614,11 +15768,13 @@
         <v>-760921.0822953219</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>32</v>
+      </c>
       <c r="J425" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15653,11 +15809,13 @@
         <v>-759653.097732185</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>32.37</v>
+      </c>
       <c r="J426" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15692,11 +15850,13 @@
         <v>-760979.5868446967</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J427" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15731,11 +15891,13 @@
         <v>-747467.2534446967</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>32.37</v>
+      </c>
       <c r="J428" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15770,11 +15932,13 @@
         <v>-744467.2534446967</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>32.38</v>
+      </c>
       <c r="J429" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15809,11 +15973,13 @@
         <v>-742367.2543424618</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J430" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15848,11 +16014,13 @@
         <v>-744367.2543424618</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>32.43</v>
+      </c>
       <c r="J431" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15887,11 +16055,13 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J432" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15926,11 +16096,13 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J433" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15965,11 +16137,13 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J434" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16004,11 +16178,13 @@
         <v>-794478.2960424618</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J435" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16043,11 +16219,13 @@
         <v>-794445.2756981738</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>31.88</v>
+      </c>
       <c r="J436" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16082,11 +16260,13 @@
         <v>-794379.2831510012</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>31.95</v>
+      </c>
       <c r="J437" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16121,11 +16301,13 @@
         <v>-795464.5832510012</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>32.19</v>
+      </c>
       <c r="J438" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16160,11 +16342,13 @@
         <v>-795431.4890526232</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>31.9</v>
+      </c>
       <c r="J439" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16199,11 +16383,13 @@
         <v>-795398.47722935</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>32.06</v>
+      </c>
       <c r="J440" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16238,11 +16424,13 @@
         <v>-811759.87062935</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>32.14</v>
+      </c>
       <c r="J441" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16277,11 +16465,13 @@
         <v>-797759.1493089132</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J442" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16316,11 +16506,13 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>32.09</v>
+      </c>
       <c r="J443" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16355,11 +16547,13 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>32.31</v>
+      </c>
       <c r="J444" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16394,11 +16588,13 @@
         <v>-798586.7726313211</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>32.31</v>
+      </c>
       <c r="J445" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16433,11 +16629,13 @@
         <v>-798553.7816571536</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J446" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16472,11 +16670,13 @@
         <v>-800553.7816571536</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>32.13</v>
+      </c>
       <c r="J447" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16511,11 +16711,13 @@
         <v>-789345.0984926415</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J448" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16550,11 +16752,13 @@
         <v>-790873.2075926415</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>32.18</v>
+      </c>
       <c r="J449" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16589,11 +16793,13 @@
         <v>-787205.0455926415</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>31.84</v>
+      </c>
       <c r="J450" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16628,11 +16834,13 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>32</v>
+      </c>
       <c r="J451" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16667,11 +16875,13 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>31.84</v>
+      </c>
       <c r="J452" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16706,11 +16916,13 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>31.84</v>
+      </c>
       <c r="J453" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16745,11 +16957,13 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J454" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16784,11 +16998,13 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J455" t="n">
-        <v>31.98</v>
+        <v>31.61</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16801,6 +17017,6 @@
       <c r="M455" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-16 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>542039.806036331</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>525866.709836331</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>437882.778936331</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>411185.312736331</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>457784.9396363309</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>217839.6349363309</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>215709.3303363309</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>166381.8245363309</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>161819.9336363309</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>113519.4504363309</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>110990.0063363309</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>108241.2680363309</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>108258.2680363309</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>82815.4345363309</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>85421.4345363309</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>85438.4345363309</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>84652.4714363309</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>107370.0767363309</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>107370.0767363309</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>105230.0767363309</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>103837.5934363309</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>108731.0315363309</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>108842.0315363309</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>108874.0315363309</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>104974.4709363309</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>111216.0204363309</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>145107.8524363309</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>104257.4672363309</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>105761.4472363309</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>138417.2386363309</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>136268.8203363309</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>120860.5683363309</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>101481.7868363309</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -4180,17 +4180,11 @@
         <v>-90286.88709476449</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>31.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4219,17 +4213,11 @@
         <v>-88554.77239476448</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>31.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4258,17 +4246,11 @@
         <v>-87920.80959476449</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>31.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4297,17 +4279,11 @@
         <v>-84556.55189476449</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4336,17 +4312,11 @@
         <v>-84556.55189476449</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>31.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4375,17 +4345,11 @@
         <v>-84540.59269476449</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>31.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4414,17 +4378,11 @@
         <v>-84540.59269476449</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>31.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4453,17 +4411,11 @@
         <v>-84540.59269476449</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>31.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4496,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4570,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4640,17 +4576,11 @@
         <v>-83821.08586446728</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>31.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4679,17 +4609,11 @@
         <v>-85476.18676446729</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>31.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4718,17 +4642,11 @@
         <v>-86180.37116446729</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>31.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4757,17 +4675,11 @@
         <v>-120001.6292644673</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>31.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4796,17 +4708,11 @@
         <v>-263051.7303644673</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4835,17 +4741,11 @@
         <v>-180227.7303644673</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>30.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4874,17 +4774,11 @@
         <v>-235359.9461644673</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4913,17 +4807,11 @@
         <v>-274401.4231644673</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4952,17 +4840,11 @@
         <v>-303210.1657644673</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>30.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4991,17 +4873,11 @@
         <v>-296406.7341644673</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>30.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5030,17 +4906,11 @@
         <v>-296406.7341644673</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>30.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5069,17 +4939,11 @@
         <v>-294981.1809644672</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>30.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5108,17 +4972,11 @@
         <v>-294948.1932781419</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>30.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5147,17 +5005,11 @@
         <v>-296563.8810781419</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>30.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5186,17 +5038,11 @@
         <v>-296563.8810781419</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>30.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5225,17 +5071,11 @@
         <v>-296563.8810781419</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>30.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5272,7 +5112,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5728,9 +5568,11 @@
         <v>-207344.4520781419</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>30.42</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5802,11 +5644,9 @@
         <v>-239651.8319781419</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>30.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6803,11 +6643,9 @@
         <v>-476815.0809746812</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>30.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6842,11 +6680,9 @@
         <v>-476715.0809746812</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>30.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6881,11 +6717,9 @@
         <v>-470014.5234746812</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>30.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6920,11 +6754,9 @@
         <v>-414437.8174746812</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>30.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6959,11 +6791,9 @@
         <v>-410851.8200754615</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>30.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6998,11 +6828,9 @@
         <v>-410351.8200754615</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>30.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7555,11 +7383,9 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>30.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7594,11 +7420,9 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>30.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7633,11 +7457,9 @@
         <v>-339545.3758754615</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>30.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7672,11 +7494,9 @@
         <v>-338545.3758754615</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7711,11 +7531,9 @@
         <v>-348228.3758754615</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7750,11 +7568,9 @@
         <v>-345728.3758754615</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>30.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7789,11 +7605,9 @@
         <v>-340104.7195754615</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>30.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7828,11 +7642,9 @@
         <v>-339156.9585754615</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>30.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7867,11 +7679,9 @@
         <v>-339173.0616754615</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>31.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7906,11 +7716,9 @@
         <v>-324896.3399754615</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>31.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7982,11 +7790,9 @@
         <v>-316349.2982754615</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>30.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -9686,16 +9492,18 @@
         <v>157111.9608297621</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -9725,7 +9533,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9758,7 +9570,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9791,7 +9607,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9644,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9857,7 +9681,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9718,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9923,7 +9755,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9956,7 +9792,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9989,7 +9829,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10022,7 +9866,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9899,15 @@
         <v>71564.39122976213</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10084,11 +9936,15 @@
         <v>58424.39132976213</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10117,11 +9973,15 @@
         <v>56424.39132976213</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10150,11 +10010,15 @@
         <v>29273.68762976213</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10183,11 +10047,15 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10216,11 +10084,15 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10249,11 +10121,15 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10282,11 +10158,15 @@
         <v>29289.68762976213</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10319,7 +10199,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +10232,15 @@
         <v>17544.15462976213</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10385,7 +10273,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10418,7 +10310,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10451,7 +10347,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10480,11 +10380,15 @@
         <v>-21025.15767023787</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10421,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10550,7 +10458,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10583,7 +10495,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10616,7 +10532,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10569,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10682,7 +10606,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10711,11 +10639,15 @@
         <v>-151298.0879702379</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10744,11 +10676,15 @@
         <v>-416350.6743702379</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10777,11 +10713,15 @@
         <v>-416317.670859226</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10814,7 +10754,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10847,7 +10791,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10880,7 +10828,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10913,7 +10865,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10946,7 +10902,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10979,7 +10939,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11012,7 +10976,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11013,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11078,7 +11050,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11111,7 +11087,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11144,7 +11124,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11177,7 +11161,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11206,11 +11194,17 @@
         <v>-375146.292559226</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11243,7 +11237,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11276,7 +11274,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +11311,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11342,7 +11348,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11375,7 +11385,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11408,7 +11422,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11441,7 +11459,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11474,7 +11496,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11507,7 +11533,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11540,7 +11570,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11573,7 +11607,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11606,7 +11644,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11639,7 +11681,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11668,15 +11714,15 @@
         <v>-588666.3263592261</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="J321" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="K321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11708,12 +11754,10 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>30.96</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L322" t="n">
@@ -11747,12 +11791,10 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>30.96</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L323" t="n">
@@ -11787,7 +11829,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11820,7 +11866,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11853,7 +11903,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11886,7 +11940,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11919,7 +11977,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11952,7 +12014,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11985,7 +12051,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12018,7 +12088,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12051,7 +12125,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12084,7 +12162,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12117,7 +12199,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12150,7 +12236,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12183,7 +12273,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12216,7 +12310,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12249,7 +12347,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12278,15 +12380,15 @@
         <v>-563521.369859226</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="J339" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="K339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12318,12 +12420,10 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>31.33</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L340" t="n">
@@ -12357,12 +12457,10 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>31.33</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -12397,7 +12495,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12430,7 +12532,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12463,7 +12569,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12492,15 +12602,15 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="J345" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="K345" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12529,17 +12639,13 @@
         <v>-624801.4482592259</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="J346" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12570,14 +12676,10 @@
         <v>-626012.7618592259</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>31.98</v>
-      </c>
-      <c r="J347" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12611,14 +12713,10 @@
         <v>-626047.7618592259</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="J348" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12652,14 +12750,10 @@
         <v>-658797.9502592259</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>31.86</v>
-      </c>
-      <c r="J349" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,14 +12787,10 @@
         <v>-658697.9502592259</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>31.51</v>
-      </c>
-      <c r="J350" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12734,14 +12824,10 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>31.62</v>
-      </c>
-      <c r="J351" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12775,14 +12861,10 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J352" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12816,14 +12898,10 @@
         <v>-717064.4483592259</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J353" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,14 +12935,10 @@
         <v>-716745.3673126401</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>31.17</v>
-      </c>
-      <c r="J354" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,14 +12972,10 @@
         <v>-716645.3673126401</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>31.34</v>
-      </c>
-      <c r="J355" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12939,14 +13009,10 @@
         <v>-716545.3673126401</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="J356" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,14 +13046,10 @@
         <v>-713388.8016560744</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="J357" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13021,14 +13083,10 @@
         <v>-718284.0707560744</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>31.68</v>
-      </c>
-      <c r="J358" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13062,14 +13120,10 @@
         <v>-719487.8238560744</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="J359" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13103,14 +13157,10 @@
         <v>-719387.8238560744</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J360" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13144,14 +13194,10 @@
         <v>-681587.8238560744</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="J361" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,14 +13231,10 @@
         <v>-682398.1987560744</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>31.67</v>
-      </c>
-      <c r="J362" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13226,14 +13268,10 @@
         <v>-682298.1987560744</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="J363" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,14 +13305,10 @@
         <v>-729377.3336560744</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>31.73</v>
-      </c>
-      <c r="J364" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13308,14 +13342,10 @@
         <v>-729343.3424280041</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="J365" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13349,14 +13379,10 @@
         <v>-790092.1174493878</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="J366" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13390,14 +13416,10 @@
         <v>-790531.2632493878</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J367" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13431,14 +13453,10 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>31.71</v>
-      </c>
-      <c r="J368" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13472,14 +13490,10 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>31.65</v>
-      </c>
-      <c r="J369" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,14 +13527,10 @@
         <v>-791631.2632493878</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>31.65</v>
-      </c>
-      <c r="J370" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,14 +13564,10 @@
         <v>-791531.2632493878</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>31.81</v>
-      </c>
-      <c r="J371" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13595,14 +13601,10 @@
         <v>-800031.2632493878</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="J372" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13636,14 +13638,10 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>31.65</v>
-      </c>
-      <c r="J373" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13677,14 +13675,10 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="J374" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13718,14 +13712,10 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="J375" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13759,14 +13749,10 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="J376" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13800,14 +13786,10 @@
         <v>-773404.3996493878</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="J377" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13841,14 +13823,10 @@
         <v>-778519.8958493879</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>32.14</v>
-      </c>
-      <c r="J378" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,14 +13860,10 @@
         <v>-781707.4395493879</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="J379" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13923,14 +13897,10 @@
         <v>-786919.7929493879</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>31.71</v>
-      </c>
-      <c r="J380" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13964,14 +13934,10 @@
         <v>-809660.8433493879</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J381" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14005,14 +13971,10 @@
         <v>-809627.8471420554</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="J382" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14046,14 +14008,10 @@
         <v>-753680.8471420554</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="J383" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,14 +14045,10 @@
         <v>-770226.7299420554</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>31.74</v>
-      </c>
-      <c r="J384" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14128,14 +14082,10 @@
         <v>-767726.7299420554</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="J385" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14169,14 +14119,10 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J386" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14210,14 +14156,10 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J387" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14251,14 +14193,10 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J388" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14292,14 +14230,10 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J389" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14333,14 +14267,10 @@
         <v>-783223.3566420554</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J390" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14374,14 +14304,10 @@
         <v>-784223.3566420554</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>31.59</v>
-      </c>
-      <c r="J391" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14415,14 +14341,10 @@
         <v>-778818.8582420554</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>31.24</v>
-      </c>
-      <c r="J392" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14456,14 +14378,10 @@
         <v>-762605.3630420554</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="J393" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14497,14 +14415,10 @@
         <v>-757275.6057420553</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="J394" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14538,14 +14452,10 @@
         <v>-757231.3922420554</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="J395" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14579,14 +14489,10 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J396" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14620,14 +14526,10 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="J397" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14661,14 +14563,10 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="J398" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14702,14 +14600,10 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="J399" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14743,14 +14637,10 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="J400" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14784,14 +14674,10 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="J401" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14825,14 +14711,10 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J402" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14866,14 +14748,10 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J403" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14907,14 +14785,10 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J404" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14948,14 +14822,10 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J405" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,14 +14859,10 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J406" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15030,14 +14896,10 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J407" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,14 +14933,10 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J408" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15112,14 +14970,10 @@
         <v>-737112.814267958</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J409" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15153,14 +15007,10 @@
         <v>-700031.834020482</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="J410" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15194,14 +15044,10 @@
         <v>-699932.8244291845</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J411" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,14 +15081,10 @@
         <v>-693130.8152719227</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="J412" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15276,14 +15118,10 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="J413" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15317,14 +15155,10 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="J414" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15358,14 +15192,10 @@
         <v>-695660.0452719227</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>32.34</v>
-      </c>
-      <c r="J415" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15399,14 +15229,10 @@
         <v>-693926.1519069272</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="J416" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15440,14 +15266,10 @@
         <v>-705874.3414752824</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>32.09</v>
-      </c>
-      <c r="J417" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15481,14 +15303,10 @@
         <v>-704054.3619849158</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>31.98</v>
-      </c>
-      <c r="J418" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15522,14 +15340,10 @@
         <v>-704345.1462849159</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="J419" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15563,14 +15377,10 @@
         <v>-689162.1319849158</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="J420" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15604,14 +15414,10 @@
         <v>-687005.128815709</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="J421" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15645,14 +15451,10 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="J422" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15686,14 +15488,10 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>32</v>
-      </c>
-      <c r="J423" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15727,14 +15525,10 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>32</v>
-      </c>
-      <c r="J424" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15768,14 +15562,10 @@
         <v>-760921.0822953219</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>32</v>
-      </c>
-      <c r="J425" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,14 +15599,10 @@
         <v>-759653.097732185</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="J426" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15850,14 +15636,10 @@
         <v>-760979.5868446967</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="J427" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15891,14 +15673,10 @@
         <v>-747467.2534446967</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="J428" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15932,14 +15710,10 @@
         <v>-744467.2534446967</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>32.38</v>
-      </c>
-      <c r="J429" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15973,14 +15747,10 @@
         <v>-742367.2543424618</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="J430" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16014,14 +15784,10 @@
         <v>-744367.2543424618</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="J431" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16055,14 +15821,10 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="J432" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16096,14 +15858,10 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="J433" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16137,14 +15895,10 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="J434" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16178,14 +15932,10 @@
         <v>-794478.2960424618</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="J435" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16219,14 +15969,10 @@
         <v>-794445.2756981738</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="J436" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16260,14 +16006,10 @@
         <v>-794379.2831510012</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="J437" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16301,14 +16043,10 @@
         <v>-795464.5832510012</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="J438" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16342,14 +16080,10 @@
         <v>-795431.4890526232</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="J439" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16383,14 +16117,10 @@
         <v>-795398.47722935</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="J440" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16424,14 +16154,10 @@
         <v>-811759.87062935</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>32.14</v>
-      </c>
-      <c r="J441" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,14 +16191,10 @@
         <v>-797759.1493089132</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="J442" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16506,14 +16228,10 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>32.09</v>
-      </c>
-      <c r="J443" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16547,14 +16265,10 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="J444" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16588,14 +16302,10 @@
         <v>-798586.7726313211</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="J445" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16629,14 +16339,10 @@
         <v>-798553.7816571536</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="J446" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16670,14 +16376,10 @@
         <v>-800553.7816571536</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="J447" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16711,14 +16413,10 @@
         <v>-789345.0984926415</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="J448" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16752,14 +16450,10 @@
         <v>-790873.2075926415</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="J449" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16793,14 +16487,10 @@
         <v>-787205.0455926415</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="J450" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16834,14 +16524,10 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>32</v>
-      </c>
-      <c r="J451" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16875,14 +16561,10 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="J452" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16916,14 +16598,10 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="J453" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16957,14 +16635,10 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="J454" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16998,14 +16672,10 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>32.01</v>
-      </c>
-      <c r="J455" t="n">
-        <v>31.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17017,6 +16687,6 @@
       <c r="M455" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-16 BackTest LAMB.xlsx
@@ -451,7 +451,7 @@
         <v>1000456.013936331</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>999169.7907363309</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>949470.4230363308</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>993894.4306363309</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1031921.430636331</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1054147.925036331</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>542039.806036331</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>437882.778936331</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>411185.312736331</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>457784.9396363309</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>217839.6349363309</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>215709.3303363309</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>205698.6905363309</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>166381.8245363309</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>161819.9336363309</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>113519.4504363309</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -5104,17 +5104,11 @@
         <v>-294966.8810781419</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>30.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5143,17 +5137,11 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>30.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5182,17 +5170,11 @@
         <v>-310874.1801781419</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>30.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5221,17 +5203,11 @@
         <v>-311062.6797781419</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>30.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5260,17 +5236,11 @@
         <v>-321016.4243781419</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>30.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5299,17 +5269,11 @@
         <v>-431482.5958781419</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>30.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5338,17 +5302,11 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>30.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5377,17 +5335,11 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>30.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5416,17 +5368,11 @@
         <v>-419070.0442781419</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>30.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5409,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -6606,9 +6552,11 @@
         <v>-476915.0809746812</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>30.49</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6643,9 +6591,11 @@
         <v>-476815.0809746812</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>30.41</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6680,9 +6630,11 @@
         <v>-476715.0809746812</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>30.46</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6717,9 +6669,11 @@
         <v>-470014.5234746812</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>30.47</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6754,9 +6708,11 @@
         <v>-414437.8174746812</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>30.58</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6791,9 +6747,11 @@
         <v>-410851.8200754615</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>30.66</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6828,9 +6786,11 @@
         <v>-410351.8200754615</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>30.78</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7272,9 +7232,11 @@
         <v>-351997.8528754615</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>31.04</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7309,9 +7271,11 @@
         <v>-328671.7343754615</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7346,9 +7310,11 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7383,9 +7349,11 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30.33</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7420,9 +7388,11 @@
         <v>-340545.3758754615</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>30.33</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7457,9 +7427,11 @@
         <v>-339545.3758754615</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>30.33</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7494,9 +7466,11 @@
         <v>-338545.3758754615</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7531,9 +7505,11 @@
         <v>-348228.3758754615</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7568,9 +7544,11 @@
         <v>-345728.3758754615</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>30.63</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7605,9 +7583,11 @@
         <v>-340104.7195754615</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>30.77</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7642,9 +7622,11 @@
         <v>-339156.9585754615</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30.87</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7679,9 +7661,11 @@
         <v>-339173.0616754615</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>31.07</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7716,9 +7700,11 @@
         <v>-324896.3399754615</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>31.05</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7790,9 +7776,11 @@
         <v>-316349.2982754615</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>30.74</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8012,9 +8000,11 @@
         <v>-308351.2311754616</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>31.18</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8086,9 +8076,11 @@
         <v>-300182.0622754616</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>31.33</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8308,9 +8300,11 @@
         <v>-251191.3872754616</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>31.41</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8382,9 +8376,11 @@
         <v>-252224.6652754616</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>31.41</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8419,9 +8415,11 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>31.4</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8456,9 +8454,11 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>31.52</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8493,9 +8493,11 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>31.52</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8530,9 +8532,11 @@
         <v>-25137.15907546156</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>31.52</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9122,18 +9126,16 @@
         <v>221671.5686245385</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -9159,15 +9161,11 @@
         <v>224671.5686245385</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9196,15 +9194,11 @@
         <v>49441.95172976208</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9233,15 +9227,11 @@
         <v>60628.78812976208</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9270,15 +9260,11 @@
         <v>60628.78812976208</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9307,15 +9293,11 @@
         <v>159484.8970297621</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9344,15 +9326,11 @@
         <v>194031.1172297621</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9381,15 +9359,11 @@
         <v>190096.1750297621</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9418,15 +9392,11 @@
         <v>186755.1750297621</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9455,15 +9425,11 @@
         <v>184755.1750297621</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9492,15 +9458,11 @@
         <v>157111.9608297621</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9529,15 +9491,11 @@
         <v>122565.7406297621</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +9528,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +9561,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9594,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9681,11 +9627,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9718,11 +9660,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9755,11 +9693,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9792,11 +9726,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +9759,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9866,11 +9792,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +9825,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +9858,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9977,11 +9891,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10014,11 +9924,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10051,11 +9957,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10088,11 +9990,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10125,11 +10023,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10162,11 +10056,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +10089,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10236,11 +10122,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10273,11 +10155,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10310,11 +10188,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10347,11 +10221,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10254,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10421,11 +10287,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10458,11 +10320,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10495,11 +10353,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10532,11 +10386,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10569,11 +10419,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10452,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10643,11 +10485,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +10518,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10717,11 +10551,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10754,11 +10584,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10791,11 +10617,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10828,11 +10650,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10865,11 +10683,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10902,11 +10716,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10939,11 +10749,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10976,11 +10782,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +10815,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11050,11 +10848,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11087,11 +10881,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11124,11 +10914,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11161,11 +10947,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11194,17 +10976,11 @@
         <v>-375146.292559226</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>31.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11237,11 +11013,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11274,11 +11046,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11311,11 +11079,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +11112,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11385,11 +11145,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11422,11 +11178,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11459,11 +11211,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11496,11 +11244,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11533,11 +11277,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +11310,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +11343,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11644,11 +11376,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +11409,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11718,11 +11442,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11755,11 +11475,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11792,11 +11508,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11829,11 +11541,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11866,11 +11574,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11903,11 +11607,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11940,11 +11640,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11977,11 +11673,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12014,11 +11706,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12051,11 +11739,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12088,11 +11772,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12125,11 +11805,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12162,11 +11838,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +11871,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +11904,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12269,15 +11933,15 @@
         <v>-564392.264459226</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="J336" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12306,13 +11970,17 @@
         <v>-564392.264459226</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="J337" t="n">
+        <v>31.43</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -12343,13 +12011,17 @@
         <v>-565521.369859226</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="J338" t="n">
+        <v>31.43</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L338" t="n">
@@ -12380,15 +12052,15 @@
         <v>-563521.369859226</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="J339" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12417,13 +12089,17 @@
         <v>-541811.887759226</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="J340" t="n">
+        <v>31.33</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L340" t="n">
@@ -12454,13 +12130,17 @@
         <v>-541711.887759226</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="J341" t="n">
+        <v>31.33</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -12495,11 +12175,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12528,13 +12204,15 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -12565,9 +12243,11 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -12602,9 +12282,11 @@
         <v>-681952.237359226</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12639,9 +12321,11 @@
         <v>-624801.4482592259</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12676,9 +12360,11 @@
         <v>-626012.7618592259</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>31.98</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12713,9 +12399,11 @@
         <v>-626047.7618592259</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>31.89</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12750,9 +12438,11 @@
         <v>-658797.9502592259</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>31.86</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12787,9 +12477,11 @@
         <v>-658697.9502592259</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>31.51</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12824,9 +12516,11 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>31.62</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12861,9 +12555,11 @@
         <v>-697608.9489592259</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12898,9 +12594,11 @@
         <v>-717064.4483592259</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12935,9 +12633,11 @@
         <v>-716745.3673126401</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>31.17</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12972,9 +12672,11 @@
         <v>-716645.3673126401</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>31.34</v>
+      </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13009,9 +12711,11 @@
         <v>-716545.3673126401</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13046,9 +12750,11 @@
         <v>-713388.8016560744</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>31.54</v>
+      </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -13083,9 +12789,11 @@
         <v>-718284.0707560744</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>31.68</v>
+      </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -13120,9 +12828,11 @@
         <v>-719487.8238560744</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>31.38</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13157,9 +12867,11 @@
         <v>-719387.8238560744</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13194,9 +12906,11 @@
         <v>-681587.8238560744</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>31.55</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13231,9 +12945,11 @@
         <v>-682398.1987560744</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>31.67</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13268,9 +12984,11 @@
         <v>-682298.1987560744</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>31.44</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13305,9 +13023,11 @@
         <v>-729377.3336560744</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>31.73</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13342,9 +13062,11 @@
         <v>-729343.3424280041</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>31.45</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13379,9 +13101,11 @@
         <v>-790092.1174493878</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>31.92</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13416,9 +13140,11 @@
         <v>-790531.2632493878</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>31.8</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13453,9 +13179,11 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>31.71</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13490,9 +13218,11 @@
         <v>-792031.2632493878</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>31.65</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13527,9 +13257,11 @@
         <v>-791631.2632493878</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>31.65</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13564,9 +13296,11 @@
         <v>-791531.2632493878</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>31.81</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -13601,9 +13335,11 @@
         <v>-800031.2632493878</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13638,9 +13374,11 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>31.65</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13675,9 +13413,11 @@
         <v>-803531.2632493878</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13712,9 +13452,11 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>31.61</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13749,9 +13491,11 @@
         <v>-800171.2632493878</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>31.75</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13786,9 +13530,11 @@
         <v>-773404.3996493878</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>31.75</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13823,9 +13569,11 @@
         <v>-778519.8958493879</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>32.14</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13860,9 +13608,11 @@
         <v>-781707.4395493879</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13897,9 +13647,11 @@
         <v>-786919.7929493879</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>31.71</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13934,9 +13686,11 @@
         <v>-809660.8433493879</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13971,9 +13725,11 @@
         <v>-809627.8471420554</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14008,9 +13764,11 @@
         <v>-753680.8471420554</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>31.64</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14045,9 +13803,11 @@
         <v>-770226.7299420554</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>31.74</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14082,9 +13842,11 @@
         <v>-767726.7299420554</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>31.64</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14119,9 +13881,11 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -14156,9 +13920,11 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -14193,9 +13959,11 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -14230,9 +13998,11 @@
         <v>-779226.7299420554</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -14267,9 +14037,11 @@
         <v>-783223.3566420554</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -14304,9 +14076,11 @@
         <v>-784223.3566420554</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>31.59</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14341,9 +14115,11 @@
         <v>-778818.8582420554</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>31.24</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -14378,9 +14154,11 @@
         <v>-762605.3630420554</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -14415,9 +14193,11 @@
         <v>-757275.6057420553</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>31.31</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14452,9 +14232,11 @@
         <v>-757231.3922420554</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>31.46</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -14489,9 +14271,11 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -14526,9 +14310,11 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -14563,9 +14349,11 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14600,9 +14388,11 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14637,9 +14427,11 @@
         <v>-758557.9613420554</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14674,9 +14466,11 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>31.26</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14711,9 +14505,11 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14748,9 +14544,11 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14785,9 +14583,11 @@
         <v>-740634.9613420554</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14822,9 +14622,11 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14859,9 +14661,11 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14896,9 +14700,11 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14933,9 +14739,11 @@
         <v>-738267.6412420553</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14970,9 +14778,11 @@
         <v>-737112.814267958</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -15007,9 +14817,11 @@
         <v>-700031.834020482</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>32.27</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -15044,9 +14856,11 @@
         <v>-699932.8244291845</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -15081,9 +14895,11 @@
         <v>-693130.8152719227</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15118,9 +14934,11 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>32.43</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -15155,9 +14973,11 @@
         <v>-693660.0452719227</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>32.34</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -15192,9 +15012,11 @@
         <v>-695660.0452719227</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>32.34</v>
+      </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -15229,9 +15051,11 @@
         <v>-693926.1519069272</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>31.82</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -15266,9 +15090,11 @@
         <v>-705874.3414752824</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>32.09</v>
+      </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -15303,9 +15129,11 @@
         <v>-704054.3619849158</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>31.98</v>
+      </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -15340,9 +15168,11 @@
         <v>-704345.1462849159</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>32.18</v>
+      </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -15377,9 +15207,11 @@
         <v>-689162.1319849158</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>31.88</v>
+      </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -15414,9 +15246,11 @@
         <v>-687005.128815709</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>32.05</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -15451,9 +15285,11 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>32.15</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -15488,9 +15324,11 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>32</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -15525,9 +15363,11 @@
         <v>-764216.609715709</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>32</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -15562,9 +15402,11 @@
         <v>-760921.0822953219</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>32</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -15599,9 +15441,11 @@
         <v>-759653.097732185</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>32.37</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -15636,9 +15480,11 @@
         <v>-760979.5868446967</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -15673,9 +15519,11 @@
         <v>-747467.2534446967</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>32.37</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -15710,9 +15558,11 @@
         <v>-744467.2534446967</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>32.38</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15747,9 +15597,11 @@
         <v>-742367.2543424618</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -15784,9 +15636,11 @@
         <v>-744367.2543424618</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>32.43</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15821,9 +15675,11 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15858,9 +15714,11 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15895,9 +15753,11 @@
         <v>-789065.2543424618</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15932,9 +15792,11 @@
         <v>-794478.2960424618</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>31.91</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15969,9 +15831,11 @@
         <v>-794445.2756981738</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>31.88</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -16006,9 +15870,11 @@
         <v>-794379.2831510012</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>31.95</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -16043,9 +15909,11 @@
         <v>-795464.5832510012</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>32.19</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -16080,9 +15948,11 @@
         <v>-795431.4890526232</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>31.9</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -16117,9 +15987,11 @@
         <v>-795398.47722935</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>32.06</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -16154,9 +16026,11 @@
         <v>-811759.87062935</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>32.14</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -16191,9 +16065,11 @@
         <v>-797759.1493089132</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -16228,9 +16104,11 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>32.09</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -16265,9 +16143,11 @@
         <v>-795656.1489313211</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>32.31</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16302,9 +16182,11 @@
         <v>-798586.7726313211</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>32.31</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -16339,9 +16221,11 @@
         <v>-798553.7816571536</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -16376,9 +16260,11 @@
         <v>-800553.7816571536</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>32.13</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -16413,9 +16299,11 @@
         <v>-789345.0984926415</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>31.99</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -16450,9 +16338,11 @@
         <v>-790873.2075926415</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>32.18</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -16487,9 +16377,11 @@
         <v>-787205.0455926415</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>31.84</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -16524,9 +16416,11 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>32</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -16561,9 +16455,11 @@
         <v>-822912.9382262866</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>31.84</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16598,9 +16494,11 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>31.84</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -16635,9 +16533,11 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -16672,9 +16572,11 @@
         <v>-822879.9485355649</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>32.01</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
